--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1388842.031296439</v>
+        <v>1446651.340065843</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6993073.464434807</v>
+        <v>7453124.012400586</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>251.6517455222317</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -868,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>218.775754413495</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>216.780678658779</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>57.36335635934025</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>126.2358084348493</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>118.9693540944499</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1133,10 +1135,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>118.2123227373708</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>80.11775047948045</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.2366335893389</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>7.098427391118505</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>279.1226715099501</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1534,7 +1536,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>47.3255698806609</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>111.3190970511839</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>16.15710319043501</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>59.70406721933355</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>165.5749767973672</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>187.9933292192601</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2248,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>221.5389288874897</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.29314372029185</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>111.1800590294273</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>35.10850426866958</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,10 +2958,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>154.5259717924262</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>112.2192622328896</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>120.0693374786934</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3518,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3664,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>121.5805385097619</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>238.0472340876699</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>306.8119641454743</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>6.750738971137614</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.78780711257758</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>228.9130160223862</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>19.559632213204</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>187.21057685784</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.160856418926</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>1148.260126432226</v>
+        <v>540.0648564956382</v>
       </c>
       <c r="D2" t="n">
-        <v>724.9675056172259</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E2" t="n">
-        <v>703.0309698054875</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4328,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4361,19 +4363,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.98568150701</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>2003.98568150701</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1592.265682674757</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.968816670051</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>866.8612493132769</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.3367733815576</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>482.3367733815576</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>482.3367733815576</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>316.1285675344111</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4516,22 +4518,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>708.6795416918155</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>482.3367733815576</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.654673634235</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>568.7539436475352</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>549.5017268729395</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>123.524787020797</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>102.4410092506013</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.799903930471</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.462633885361</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.0516858538765</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>510.0791227327925</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>510.0791227327925</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>343.870916885646</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>172.0091426602064</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2177.872639149549</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1897.688190649853</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.976723257882</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>1341.124319430395</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.5604228762</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>872.2176545659422</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1034.556608460138</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588626</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>1455.701838756373</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1050.364568711263</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>695.3677541233694</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>695.3677541233694</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>695.3677541233694</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>1246.033289107808</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1796.698824092246</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>2224.911252462377</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.4456037608461</v>
+        <v>962.9877020259423</v>
       </c>
       <c r="C10" t="n">
-        <v>523.4730406397621</v>
+        <v>791.0151389048583</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1562677665327</v>
+        <v>627.698366031629</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1562677665327</v>
+        <v>461.4901601844825</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4996,16 +4998,16 @@
         <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>1153.153670738008</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1071.39335144375</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>644.4926214570503</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>362.5505290227573</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>362.5505290227573</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>362.5505290227573</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>427.2856093136876</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1227.727221711491</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2028.168834109293</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>2828.610446507096</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>1896.57898578039</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1491.24171573528</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679215</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679215</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>865.123762894595</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1665.565375292398</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>981.6550671738826</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>809.6825040527985</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>646.3657311795693</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.291571969859</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.291571969859</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1915.580104577888</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1640.727700750401</v>
+        <v>1425.821963957422</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.163804196206</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>1171.821035885948</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1638.720819676599</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1211.8200896899</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>788.5274688748998</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>362.5505290227573</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5505290227573</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1227.727221711491</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>2028.168834109293</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2660.465710453521</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>2660.465710453521</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453521</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3217.787218586643</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>3217.787218586643</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2860.297803712892</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2463.906454013239</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2463.906454013239</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2058.569183968129</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1136.821252174186</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1791.350470992599</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.8332607165451</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="C16" t="n">
-        <v>399.860697595461</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>236.5439247222317</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>236.5439247222317</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679215</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.717216822994</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>1787.469765512522</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.758298120551</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>1230.905894293064</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X16" t="n">
-        <v>988.3419977388687</v>
+        <v>1154.139142705943</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.9992294286108</v>
+        <v>927.7963743956848</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5589,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>772.98449592559</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808982</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2092.823489082331</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1812.639040582635</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1530.927573190663</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1256.075169363176</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1013.511272808982</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1013.511272808982</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5759,13 +5761,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
         <v>4541.493855905342</v>
@@ -5777,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1529.586448057074</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1529.586448057074</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1036.530120513549</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>703.5067984699893</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>703.5067984699893</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D25" t="n">
-        <v>540.1900255967601</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6178,19 +6180,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1265.638861031707</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1023.074964477512</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>796.7321961672538</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>703.6175873656338</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>531.6450242445497</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3282513713204</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2200.213991881211</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.874644107111</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1676.690195607415</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.978728215444</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1120.126324387957</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.126324387957</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.7835560776994</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>424.597759447345</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>258.3895536001985</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2176.752350469914</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1933.413002695814</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1653.228554196118</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.517086804147</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1096.66468297666</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>854.1007864224655</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>627.7580181122075</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6835,22 +6837,22 @@
         <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.6620294727279</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C37" t="n">
-        <v>603.6894663516439</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7123,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1991.298534268705</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.587066876733</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.734663049246</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.170766495052</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.8279981847936</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7184,16 +7186,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>568.9456755096874</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>396.9731123886033</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>396.9731123886033</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>396.9731123886033</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>225.1113381631638</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7360,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>985.454412532011</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>759.1116442217531</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2170.315685371786</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.073683267897</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>3181.515295665699</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2876.618109965857</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2480.226760266204</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.226760266204</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2480.226760266204</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679215</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="M42" t="n">
-        <v>865.123762894595</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.565375292398</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>515.1039843567141</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>343.1314212356301</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>336.3124929819558</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>336.3124929819558</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>164.4507187565162</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>4407.810511198358</v>
       </c>
       <c r="W43" t="n">
-        <v>947.8338496229746</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="X43" t="n">
-        <v>705.2699530687797</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="Y43" t="n">
-        <v>705.2699530687797</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.976622961234</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.075892974534</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>209.4367129105749</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>924.945020886074</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>1725.386633283877</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>2525.82824568168</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>2525.82824568168</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>2525.82824568168</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>3002.882256130126</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3002.882256130126</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2591.162257297874</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2185.824987252764</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>343.826282738295</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>343.826282738295</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>343.826282738295</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.928168679499</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>995.6479141557066</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4354.232642596015</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4072.521175204045</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.211810709902</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="X46" t="n">
-        <v>995.6479141557066</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="Y46" t="n">
-        <v>995.6479141557066</v>
+        <v>3571.3260030663</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
@@ -7988,19 +7990,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>452.289812307084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>549.2245073196783</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733348</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8468,13 +8470,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>455.7096961566977</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>461.8305092169925</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1035.799731739446</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>328.4245976189266</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>231.6742813916006</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8930,19 +8932,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>675.9633363134642</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9003,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3125147913258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,13 +9175,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>276.0147300838795</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>417.8918098719783</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1022.176719479639</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9407,16 +9409,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
-        <v>991.4483453949176</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11063,22 +11065,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>90.51442316805236</v>
+        <v>867.7084382103637</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11139,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>69.85695282998422</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.6366891964782</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
@@ -11315,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>759.5633319680896</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>139.9370230968996</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>193.5803844156981</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>160.7847827380282</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.5592120553782</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>128.5602418056114</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>111.8076272173316</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>52.91262507709894</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.56495090172237</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.97116530465314</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.50354611506967</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.3251927373869</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>15.61718469075893</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25093,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>38.61621282745647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>52.37513777582056</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>157.3132665360054</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43.01386149894832</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.858720208689135</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>108.8379165031404</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.9328661733594</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>207.1065456054738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>125.0015047026268</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>150.6932052766691</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>90.17202715685875</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480043.3494200311</v>
+        <v>637495.1666809194</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480043.3494200311</v>
+        <v>637495.1666809195</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647396.3768862559</v>
+        <v>647396.3768862558</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647396.3768862558</v>
+        <v>647396.3768862559</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647396.3768862559</v>
+        <v>647396.3768862558</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480043.3494200312</v>
+        <v>637495.1666809194</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480043.3494200311</v>
+        <v>637495.1666809195</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078141</v>
       </c>
       <c r="E2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="F2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="G2" t="n">
+        <v>393421.2821962135</v>
+      </c>
+      <c r="H2" t="n">
         <v>393421.2821962134</v>
-      </c>
-      <c r="H2" t="n">
-        <v>393421.2821962133</v>
       </c>
       <c r="I2" t="n">
         <v>393421.2821962134</v>
@@ -26338,7 +26340,7 @@
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="L2" t="n">
         <v>393421.2821962133</v>
@@ -26347,13 +26349,13 @@
         <v>393421.2821962132</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.282196213</v>
       </c>
       <c r="O2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156913</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="F4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187966</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
+        <v>58064.51385187964</v>
+      </c>
+      <c r="L4" t="n">
         <v>58064.51385187963</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="M4" t="n">
-        <v>58064.51385187963</v>
       </c>
       <c r="N4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="P4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20139.51912352891</v>
+        <v>-20139.51912352894</v>
       </c>
       <c r="C6" t="n">
-        <v>166265.2142912082</v>
+        <v>166265.2142912083</v>
       </c>
       <c r="D6" t="n">
-        <v>166265.2142912082</v>
+        <v>166265.2142912081</v>
       </c>
       <c r="E6" t="n">
-        <v>124223.9269204285</v>
+        <v>46739.86249129038</v>
       </c>
       <c r="F6" t="n">
-        <v>199554.8780738908</v>
+        <v>254172.1501078513</v>
       </c>
       <c r="G6" t="n">
-        <v>128716.3063443636</v>
+        <v>249981.0840724227</v>
       </c>
       <c r="H6" t="n">
-        <v>257606.7061559039</v>
+        <v>257606.706155904</v>
       </c>
       <c r="I6" t="n">
         <v>257606.706155904</v>
@@ -26546,22 +26548,22 @@
         <v>112073.0362210874</v>
       </c>
       <c r="K6" t="n">
-        <v>257606.7061559038</v>
+        <v>257606.7061559039</v>
       </c>
       <c r="L6" t="n">
-        <v>257606.7061559039</v>
+        <v>257606.706155904</v>
       </c>
       <c r="M6" t="n">
-        <v>194732.76919053</v>
+        <v>84476.21495026433</v>
       </c>
       <c r="N6" t="n">
-        <v>257606.7061559041</v>
+        <v>257606.7061559037</v>
       </c>
       <c r="O6" t="n">
-        <v>199554.8780738907</v>
+        <v>254172.1501078511</v>
       </c>
       <c r="P6" t="n">
-        <v>199554.8780738908</v>
+        <v>254172.1501078511</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371.3345117074836</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>169.221194470262</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.60684960120378</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>23.35757892987394</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9323154271056</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>38.35859157386088</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>158.4132499202489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>304.4193999494621</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,13 +27906,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>273.7967702455326</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.02767543560614</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>163.0447290920667</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
@@ -34708,19 +34710,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35188,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>432.5378064344755</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>998.3684688400139</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>290.8492358086953</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>638.6837134790181</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>661.1406250691036</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,13 +35895,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>238.7351072494335</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>1000.833691266097</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36127,16 +36129,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
-        <v>954.1687225604716</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,22 +37785,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>53.12346381202826</v>
+        <v>830.3174788543397</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.2167297108917</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>736.4665514557616</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446651.340065843</v>
+        <v>1445933.349950984</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>49.53842828501017</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>127.6603223348121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.775754413495</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>340.9917477555401</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>118.9693540944499</v>
+        <v>154.8833258811987</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1144,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1192,13 +1192,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>342.2462267499258</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1533,16 +1533,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>43.57932574775464</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511839</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933355</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>52.15490586746436</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2010,10 +2010,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>45.22125567436197</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2250,13 +2250,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874897</v>
+        <v>245.0743797003185</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>142.4642001258453</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>76.64068269426208</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>111.5238177048882</v>
       </c>
     </row>
     <row r="38">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>185.4921037650123</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876699</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>102.041237801374</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4155,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>68.58356278305388</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>187.21057685784</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.965586482338</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986890006</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
         <v>1768.825772958194</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4488,22 +4488,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
         <v>2097.911122221615</v>
@@ -4512,19 +4512,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1786.751981150003</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>1786.751981150003</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
         <v>1786.751981150003</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>474.3658485662003</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4755,22 +4755,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>2068.463448541974</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
         <v>1688.282378734778</v>
@@ -5041,16 +5041,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N11" t="n">
         <v>2994.337835136581</v>
@@ -5117,25 +5117,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L12" t="n">
-        <v>819.4496289866299</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P12" t="n">
         <v>1908.7645754595</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>731.4956399344113</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>559.5230768133273</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
         <v>343.6417816305598</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1538.265496332355</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.821963957422</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
         <v>2111.574999549778</v>
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5308,22 +5308,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473296</v>
+        <v>379.221077120493</v>
       </c>
       <c r="N15" t="n">
-        <v>690.5618714473296</v>
+        <v>379.221077120493</v>
       </c>
       <c r="O15" t="n">
-        <v>690.5618714473296</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P15" t="n">
-        <v>1362.599788512017</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.4892357902974</v>
+        <v>1011.396293177787</v>
       </c>
       <c r="C16" t="n">
-        <v>867.4892357902974</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D16" t="n">
-        <v>704.1724629170681</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E16" t="n">
-        <v>537.9642570699216</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8455131387141</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
         <v>199.8455131387141</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2227.808249193669</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>1984.468901419569</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1984.468901419569</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1702.757434027598</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.703039260138</v>
+        <v>1427.905030200111</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.139142705943</v>
+        <v>1427.905030200111</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7963743956848</v>
+        <v>1201.562261889853</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>319.8425236659772</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5752,16 +5752,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5782,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K26" t="n">
         <v>1007.532766690843</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>1163.130098674646</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>991.1575355535624</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>827.8407626803331</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>661.6325568331866</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>489.770782607747</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6417,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>1579.63883569697</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>1353.296067386712</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="32">
@@ -6712,13 +6712,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6891,19 +6891,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7016,28 +7016,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>847.4138558574795</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7265,10 +7265,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>929.2466917026181</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445321</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.262127278774</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>737.4303189019267</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>737.4303189019267</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1826.745265374797</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>438.2577138472205</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2177.418014916993</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>1934.078667142893</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1653.894218643197</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.810511198358</v>
+        <v>1372.182751251226</v>
       </c>
       <c r="W43" t="n">
-        <v>4132.95810737087</v>
+        <v>1097.330347423739</v>
       </c>
       <c r="X43" t="n">
-        <v>4132.95810737087</v>
+        <v>854.7664508695441</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>628.4236825592861</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
         <v>1688.282378734778</v>
@@ -7648,19 +7648,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>811.7639428804554</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>4031.958421451902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>4031.958421451902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3571.3260030663</v>
+        <v>651.3790722411763</v>
       </c>
       <c r="C46" t="n">
-        <v>3571.3260030663</v>
+        <v>479.4065091200923</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>479.4065091200923</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>479.4065091200923</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>479.4065091200923</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>313.1495394143245</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>169.3532709224789</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.232642596015</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="V46" t="n">
-        <v>4072.521175204045</v>
+        <v>1585.304109645182</v>
       </c>
       <c r="W46" t="n">
-        <v>3797.668771376558</v>
+        <v>1310.451705817695</v>
       </c>
       <c r="X46" t="n">
-        <v>3797.668771376558</v>
+        <v>1067.8878092635</v>
       </c>
       <c r="Y46" t="n">
-        <v>3571.3260030663</v>
+        <v>841.5450409532421</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>110.4928214404737</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898819</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,19 +8297,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983318</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8318,7 +8318,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8467,16 +8467,16 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8540,7 +8540,7 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
@@ -8549,7 +8549,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1035.799731739446</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>844.6581757653672</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>106.0949474728485</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>844.7332849752614</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9485,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>348.6939416158729</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10126,7 +10126,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10199,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>567.4184811513355</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,7 +10211,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10360,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10439,10 +10439,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10451,7 +10451,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10913,13 +10913,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>867.7084382103637</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>69.85695282998422</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>754.6403563518451</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11381,19 +11381,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.1042793967424</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056114</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>116.2787911385921</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>119.324868114313</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090172237</v>
+        <v>27.0295000888936</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>114.6701458615095</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>195.46319709495</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>112.5555229222672</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.772205259932662</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208689135</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>66.39245920468245</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>30.18731979407291</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685875</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647396.3768862558</v>
+        <v>647396.3768862559</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647396.3768862559</v>
+        <v>647396.3768862558</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647396.3768862559</v>
+        <v>647396.3768862558</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647396.3768862558</v>
+        <v>647396.3768862559</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637495.1666809195</v>
+        <v>637495.1666809194</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407709.8676078143</v>
+        <v>407709.8676078142</v>
       </c>
       <c r="C2" t="n">
         <v>407709.8676078143</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="E2" t="n">
-        <v>387405.0806156915</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="F2" t="n">
         <v>387405.0806156914</v>
       </c>
       <c r="G2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="H2" t="n">
         <v>393421.2821962135</v>
       </c>
-      <c r="H2" t="n">
-        <v>393421.2821962134</v>
-      </c>
       <c r="I2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
+        <v>393421.2821962134</v>
+      </c>
+      <c r="L2" t="n">
+        <v>393421.2821962132</v>
+      </c>
+      <c r="M2" t="n">
         <v>393421.2821962133</v>
       </c>
-      <c r="L2" t="n">
-        <v>393421.2821962133</v>
-      </c>
-      <c r="M2" t="n">
-        <v>393421.2821962132</v>
-      </c>
       <c r="N2" t="n">
-        <v>393421.282196213</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="O2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="P2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156914</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>173998.4022791779</v>
+      </c>
+      <c r="C4" t="n">
         <v>173998.4022791778</v>
       </c>
-      <c r="C4" t="n">
-        <v>173998.4022791779</v>
-      </c>
       <c r="D4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
         <v>57174.45239980773</v>
@@ -26432,13 +26432,13 @@
         <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187965</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187966</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
@@ -26447,7 +26447,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187964</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20139.51912352894</v>
+        <v>-20139.51912352903</v>
       </c>
       <c r="C6" t="n">
+        <v>166265.2142912084</v>
+      </c>
+      <c r="D6" t="n">
         <v>166265.2142912083</v>
       </c>
-      <c r="D6" t="n">
-        <v>166265.2142912081</v>
-      </c>
       <c r="E6" t="n">
-        <v>46739.86249129038</v>
+        <v>46667.34539488988</v>
       </c>
       <c r="F6" t="n">
-        <v>254172.1501078513</v>
+        <v>254099.6330114507</v>
       </c>
       <c r="G6" t="n">
-        <v>249981.0840724227</v>
+        <v>249930.0534102382</v>
       </c>
       <c r="H6" t="n">
-        <v>257606.706155904</v>
+        <v>257555.6754937199</v>
       </c>
       <c r="I6" t="n">
-        <v>257606.706155904</v>
+        <v>257555.6754937195</v>
       </c>
       <c r="J6" t="n">
-        <v>112073.0362210874</v>
+        <v>112022.0055589032</v>
       </c>
       <c r="K6" t="n">
-        <v>257606.7061559039</v>
+        <v>257555.6754937198</v>
       </c>
       <c r="L6" t="n">
-        <v>257606.706155904</v>
+        <v>257555.6754937196</v>
       </c>
       <c r="M6" t="n">
-        <v>84476.21495026433</v>
+        <v>84425.1842880801</v>
       </c>
       <c r="N6" t="n">
-        <v>257606.7061559037</v>
+        <v>257555.6754937198</v>
       </c>
       <c r="O6" t="n">
-        <v>254172.1501078511</v>
+        <v>254099.6330114508</v>
       </c>
       <c r="P6" t="n">
-        <v>254172.1501078511</v>
+        <v>254099.6330114507</v>
       </c>
     </row>
   </sheetData>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>371.3345117074836</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>279.9424765091181</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>58.60684960120378</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>74.65813289307465</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202489</v>
+        <v>122.4992781335</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>11.66829397508724</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.9059542963599</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>73.0615585410419</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>432.5378064344752</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>75.42597529544652</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>238.1458997847901</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>155.2981118204435</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35038,7 +35038,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35260,7 +35260,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3684688400139</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36846,7 +36846,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37080,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37171,7 +37171,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>396.8624089123078</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37633,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>830.3174788543397</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>718.8757555570357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
